--- a/public/public/assets/product_bulk_format.xlsx
+++ b/public/public/assets/product_bulk_format.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\grofresh-laravel-admin\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\pharmacy\public\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41581FBB-BE8B-4790-AFF2-B21835C3BE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -31,59 +30,59 @@
     <t>price</t>
   </si>
   <si>
-    <t>tax</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>discount_type</t>
-  </si>
-  <si>
-    <t>tax_type</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>total_stock</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>Good product</t>
   </si>
   <si>
     <t>category_id</t>
   </si>
   <si>
-    <t>sub_category_id</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>daily_needs</t>
-  </si>
-  <si>
     <t>Orange</t>
   </si>
   <si>
     <t>Corn Flakes</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>indication</t>
+  </si>
+  <si>
+    <t>dosage</t>
+  </si>
+  <si>
+    <t>warnings</t>
+  </si>
+  <si>
+    <t>choice_options</t>
+  </si>
+  <si>
+    <t>asdsafesdgawe</t>
+  </si>
+  <si>
+    <t>FERHSJRTHG</t>
+  </si>
+  <si>
+    <t>TTYetreytr</t>
+  </si>
+  <si>
+    <t>jnilhusiachnkjc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -93,6 +92,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -120,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,25 +440,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="7.875" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,120 +469,100 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>500</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>14</v>
+      <c r="E2">
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="2">
-        <v>0</v>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>300</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
+        <v>96</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>250</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>96</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>